--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10545" tabRatio="647" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="21495" windowHeight="10545" tabRatio="647" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MessageId" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Design" sheetId="6" r:id="rId6"/>
     <sheet name="ObjectModel" sheetId="7" r:id="rId7"/>
     <sheet name="Message" sheetId="8" r:id="rId8"/>
+    <sheet name="FD" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
   <si>
     <t>message</t>
   </si>
@@ -687,18 +688,141 @@
   <si>
     <t>CONTENT_AGGREGATOR</t>
   </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File_descriptor</t>
+  </si>
+  <si>
+    <t>EventDescription</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>#define</t>
+  </si>
+  <si>
+    <t>event table</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>0b001</t>
+  </si>
+  <si>
+    <t>peripheral table</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>Peripherals</t>
+  </si>
+  <si>
+    <t>0b010</t>
+  </si>
+  <si>
+    <t>RECV</t>
+  </si>
+  <si>
+    <t>0b011</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>0b100</t>
+  </si>
+  <si>
+    <t>typedef struct {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    struct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        uint8_t et : 3;             //  event table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        uint8_t pt : 5;             //  peripheral table</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>0b00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } events,                       //  requested events</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>0b00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      revents;                      //  returned events</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>0b00011</t>
+  </si>
+  <si>
+    <t>} EventDescription;</t>
+  </si>
+  <si>
+    <t>0b10001</t>
+  </si>
+  <si>
+    <t>0b10010</t>
+  </si>
+  <si>
+    <t>0b10011</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>0b10100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,12 +846,6 @@
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -783,89 +901,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -874,8 +909,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,9 +932,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,11 +1014,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1001,7 +1119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1143,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,13 +1185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1203,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,97 +1269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,15 +1366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1268,6 +1377,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,17 +1433,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1326,213 +1444,222 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1541,16 +1668,16 @@
     <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1736,6 +1863,135 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12439650" y="1133475"/>
+          <a:ext cx="2857500" cy="1400810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12439650" y="1133475"/>
+          <a:ext cx="2857500" cy="1400810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="FileDescription"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="2847975"/>
+          <a:ext cx="2856865" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2008,109 +2264,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="35"/>
-    <col min="2" max="2" width="12.7083333333333" style="35" customWidth="1"/>
-    <col min="3" max="3" width="20.425" style="35" customWidth="1"/>
-    <col min="4" max="4" width="24.5666666666667" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9" style="35"/>
-    <col min="6" max="6" width="19.1416666666667" style="35" customWidth="1"/>
-    <col min="7" max="7" width="24.7083333333333" style="35" customWidth="1"/>
-    <col min="8" max="8" width="20.8583333333333" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="12.7083333333333" style="38" customWidth="1"/>
+    <col min="3" max="3" width="20.425" style="38" customWidth="1"/>
+    <col min="4" max="4" width="24.5666666666667" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9" style="38"/>
+    <col min="6" max="6" width="19.1416666666667" style="38" customWidth="1"/>
+    <col min="7" max="7" width="24.7083333333333" style="38" customWidth="1"/>
+    <col min="8" max="8" width="20.8583333333333" style="38" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1"/>
-    <row r="2" s="34" customFormat="1" ht="18" customHeight="1" spans="2:7">
-      <c r="B2" s="34" t="s">
+    <row r="2" s="37" customFormat="1" ht="18" customHeight="1" spans="2:7">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="2:8">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="3:8">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="3:8">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="3:8">
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2151,12 +2407,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2166,7 +2422,7 @@
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2176,7 +2432,7 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2186,12 +2442,12 @@
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="29" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2211,12 +2467,12 @@
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2226,12 +2482,12 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2270,12 +2526,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" ht="21.75" spans="2:2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2285,7 +2541,7 @@
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2295,67 +2551,67 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" ht="21.75" spans="2:2">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2389,191 +2645,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.1416666666667" style="29" customWidth="1"/>
-    <col min="3" max="3" width="36.2833333333333" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.1416666666667" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="18" style="32" customWidth="1"/>
+    <col min="2" max="2" width="18.1416666666667" style="32" customWidth="1"/>
+    <col min="3" max="3" width="36.2833333333333" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.1416666666667" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" s="27" customFormat="1" spans="2:6">
-      <c r="B4" s="27" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" s="30" customFormat="1" spans="2:6">
+      <c r="B4" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" s="27" customFormat="1" ht="25.5" spans="2:6">
-      <c r="B5" s="27" t="s">
+    <row r="5" s="30" customFormat="1" ht="25.5" spans="2:6">
+      <c r="B5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" ht="25.5" spans="2:6">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="25.5" spans="2:6">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:6">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="28" customFormat="1" spans="2:5">
-      <c r="B13" s="28" t="s">
+    <row r="13" s="31" customFormat="1" spans="2:5">
+      <c r="B13" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="2:6">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="32" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:6">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="32" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="32" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2598,12 +2854,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" ht="21.75" spans="2:2">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2613,22 +2869,22 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2655,7 +2911,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" ht="18" spans="3:13">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>115</v>
       </c>
       <c r="D3" t="s">
@@ -2664,12 +2920,12 @@
       <c r="L3" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="26" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="21"/>
+      <c r="C4" s="24"/>
       <c r="D4" t="s">
         <v>119</v>
       </c>
@@ -2678,28 +2934,28 @@
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="21"/>
+      <c r="C6" s="24"/>
       <c r="D6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="21"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="21"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
     </row>
   </sheetData>
   <sortState ref="C3:C10">
@@ -2722,490 +2978,490 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="3" width="25.5666666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.1416666666667" style="6" customWidth="1"/>
-    <col min="5" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="11" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="3" width="25.5666666666667" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14.1416666666667" style="9" customWidth="1"/>
+    <col min="5" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="11" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:10">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="5:16">
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="P3" s="6" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="P3" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="4:17">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="4:17">
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>0.01</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="20"/>
-      <c r="Q5" s="6" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="23"/>
+      <c r="Q5" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="4:17">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="20" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="5:10">
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:14">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="6" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16" t="s">
+      <c r="C13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:12">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="6" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="5:11">
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="6" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="5:14">
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="6" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="J21" s="17"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="17"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="17"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" customHeight="1" spans="5:10">
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="5:10">
-      <c r="E29" s="17"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="19"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="5:10">
-      <c r="E30" s="17"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="5:10">
-      <c r="E31" s="17"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="19"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="5:10">
-      <c r="E32" s="17"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="19"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="5:10">
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="5:10">
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="5:10">
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="5:10">
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="5:10">
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="5:10">
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="5:10">
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3223,67 +3479,67 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:M36"/>
+  <dimension ref="B4:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4.51666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.05" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.175" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="4.51666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.3583333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="11.05" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.15" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.175" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>174</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -3306,10 +3562,10 @@
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>182</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -3317,18 +3573,18 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -3336,32 +3592,32 @@
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>174</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -3375,22 +3631,22 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="7" t="s">
         <v>174</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -3401,10 +3657,10 @@
       </c>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="7" t="s">
         <v>181</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -3418,101 +3674,359 @@
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="3:9">
-      <c r="C24" s="3" t="s">
+    <row r="24" spans="3:5">
+      <c r="C24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="3:9">
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="8:9">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="5" t="str">
+        <f>J3&amp;"_"&amp;I3</f>
+        <v>ET_READ</v>
+      </c>
+      <c r="L3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="5" t="str">
+        <f>J4&amp;"_"&amp;I4</f>
+        <v>ET_WRITE</v>
+      </c>
+      <c r="L4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12">
+      <c r="D5" s="1"/>
+      <c r="I5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>J5&amp;"_"&amp;I5</f>
+        <v>ET_RECV</v>
+      </c>
+      <c r="L5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12">
+      <c r="D6" s="1"/>
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f>J6&amp;"_"&amp;I6</f>
+        <v>ET_SEND</v>
+      </c>
+      <c r="L6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f>J11&amp;"_"&amp;I11</f>
+        <v>PT_GPIO</v>
+      </c>
+      <c r="L11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f t="shared" ref="K12:K18" si="0">J12&amp;"_"&amp;I12</f>
+        <v>PT_ADC</v>
+      </c>
+      <c r="L12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PT_PWM</v>
+      </c>
+      <c r="L13" t="s">
+        <v>223</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>_</v>
+      </c>
+    </row>
+    <row r="15" spans="9:12">
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PT_UART</v>
+      </c>
+      <c r="L15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="9:12">
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PT_SPI</v>
+      </c>
+      <c r="L16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12">
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PT_I2C</v>
+      </c>
+      <c r="L17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12">
+      <c r="I18" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>PT_USB</v>
+      </c>
+      <c r="L18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10545" tabRatio="647" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="647" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MessageId" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="ObjectModel" sheetId="7" r:id="rId7"/>
     <sheet name="Message" sheetId="8" r:id="rId8"/>
     <sheet name="FD" sheetId="9" r:id="rId9"/>
+    <sheet name="JsonDesign" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
   <si>
     <t>message</t>
   </si>
@@ -743,12 +744,18 @@
     <t>typedef struct {</t>
   </si>
   <si>
+    <t>ep</t>
+  </si>
+  <si>
     <t xml:space="preserve">    struct </t>
   </si>
   <si>
     <t xml:space="preserve">    {</t>
   </si>
   <si>
+    <t>(et &lt;&lt; 5) | ep</t>
+  </si>
+  <si>
     <t xml:space="preserve">        uint8_t et : 3;             //  event table</t>
   </si>
   <si>
@@ -795,19 +802,96 @@
   </si>
   <si>
     <t>0b10100</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>sessenid</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>checksum</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>32 x 128</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>CheckSum</t>
+  </si>
+  <si>
+    <t>16^3</t>
+  </si>
+  <si>
+    <t>HEXA</t>
+  </si>
+  <si>
+    <t>SessionID</t>
+  </si>
+  <si>
+    <t>a-z</t>
+  </si>
+  <si>
+    <t>A-Z</t>
+  </si>
+  <si>
+    <t>Num of bytes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,13 +901,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -877,14 +954,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,14 +970,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -919,14 +980,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,6 +1016,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -954,86 +1098,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1059,6 +1128,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1072,12 +1147,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,13 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,25 +1206,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,31 +1260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,12 +1278,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1233,19 +1290,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,37 +1326,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,6 +1426,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1384,19 +1477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,26 +1498,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,166 +1513,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1614,7 +1704,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1623,18 +1713,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1677,9 +1767,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1700,9 +1787,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2264,109 +2348,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="12.7083333333333" style="38" customWidth="1"/>
-    <col min="3" max="3" width="20.425" style="38" customWidth="1"/>
-    <col min="4" max="4" width="24.5666666666667" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9" style="38"/>
-    <col min="6" max="6" width="19.1416666666667" style="38" customWidth="1"/>
-    <col min="7" max="7" width="24.7083333333333" style="38" customWidth="1"/>
-    <col min="8" max="8" width="20.8583333333333" style="38" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="9" style="43"/>
+    <col min="2" max="2" width="12.7083333333333" style="43" customWidth="1"/>
+    <col min="3" max="3" width="20.425" style="43" customWidth="1"/>
+    <col min="4" max="4" width="24.5666666666667" style="43" customWidth="1"/>
+    <col min="5" max="5" width="9" style="43"/>
+    <col min="6" max="6" width="19.1416666666667" style="43" customWidth="1"/>
+    <col min="7" max="7" width="24.7083333333333" style="43" customWidth="1"/>
+    <col min="8" max="8" width="20.8583333333333" style="43" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1"/>
-    <row r="2" s="37" customFormat="1" ht="18" customHeight="1" spans="2:7">
-      <c r="B2" s="37" t="s">
+    <row r="2" s="11" customFormat="1" ht="18" customHeight="1" spans="2:7">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="2:8">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="3:8">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="3:8">
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="3:8">
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2395,6 +2479,485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:Z20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="12.65" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="5" width="2.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="1" customWidth="1"/>
+    <col min="7" max="10" width="2.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="3.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="3.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.875" style="1" customWidth="1"/>
+    <col min="20" max="22" width="3.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="5.875" style="1" customWidth="1"/>
+    <col min="24" max="26" width="3.375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:26">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="3:26">
+      <c r="C3" s="2">
+        <v>64</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:26">
+      <c r="B4" s="2">
+        <f>C3-C4</f>
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <f>SUM(D4:Z4)</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="B5" s="2">
+        <f>B4-C5</f>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>32</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="2">
+        <f>B5-C6</f>
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <f>C8*128</f>
+        <v>4096</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <f>16^3</f>
+        <v>4096</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <f>26+10</f>
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <f>36^4</f>
+        <v>1679616</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S10" s="1">
+        <f>26+26+10</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <f>16^5</f>
+        <v>1048576</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="S11" s="1">
+        <f>62*62*62*62</f>
+        <v>14776336</v>
+      </c>
+    </row>
+    <row r="12" spans="19:23">
+      <c r="S12" s="1">
+        <v>11258454</v>
+      </c>
+      <c r="T12" s="4">
+        <f>S12/S10</f>
+        <v>181587.967741935</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="6">
+        <f>MOD(S12,S10)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="20:23">
+      <c r="T13" s="4">
+        <f>T12/S10</f>
+        <v>2928.83818938606</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="6">
+        <f>MOD(T12,S10)</f>
+        <v>51.9677419354848</v>
+      </c>
+    </row>
+    <row r="14" spans="20:23">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="20:23">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="20:23">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="20:23">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="20:23">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="20:23">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="20:23">
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T19:V19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
@@ -2407,12 +2970,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2422,7 +2985,7 @@
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2432,7 +2995,7 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2442,12 +3005,12 @@
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2467,12 +3030,12 @@
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="35" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2482,12 +3045,12 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="35" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2526,12 +3089,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" ht="21.75" spans="2:2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2541,7 +3104,7 @@
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2551,67 +3114,67 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" ht="21.75" spans="2:2">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2645,191 +3208,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18" style="32" customWidth="1"/>
-    <col min="2" max="2" width="18.1416666666667" style="32" customWidth="1"/>
-    <col min="3" max="3" width="36.2833333333333" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.1416666666667" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="18" style="38" customWidth="1"/>
+    <col min="2" max="2" width="18.1416666666667" style="38" customWidth="1"/>
+    <col min="3" max="3" width="36.2833333333333" style="39" customWidth="1"/>
+    <col min="4" max="4" width="18.1416666666667" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" s="30" customFormat="1" spans="2:6">
-      <c r="B4" s="30" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" s="36" customFormat="1" spans="2:6">
+      <c r="B4" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" s="30" customFormat="1" ht="25.5" spans="2:6">
-      <c r="B5" s="30" t="s">
+    <row r="5" s="36" customFormat="1" ht="25.5" spans="2:6">
+      <c r="B5" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="38" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="38" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" ht="25.5" spans="2:6">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="38" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="25.5" spans="2:6">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:6">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="38" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="31" customFormat="1" spans="2:5">
-      <c r="B13" s="31" t="s">
+    <row r="13" s="37" customFormat="1" spans="2:5">
+      <c r="B13" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="2:6">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="38" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:6">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="38" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="38" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="38" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2854,12 +3417,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" ht="21.75" spans="2:2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2869,22 +3432,22 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="35" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2911,7 +3474,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" ht="18" spans="3:13">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D3" t="s">
@@ -2920,12 +3483,12 @@
       <c r="L3" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="24"/>
+      <c r="C4" s="31"/>
       <c r="D4" t="s">
         <v>119</v>
       </c>
@@ -2934,28 +3497,28 @@
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="24"/>
+      <c r="C5" s="31"/>
       <c r="D5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="24"/>
+      <c r="C6" s="31"/>
       <c r="D6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="24"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="24"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="25"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="25"/>
+      <c r="C10" s="32"/>
     </row>
   </sheetData>
   <sortState ref="C3:C10">
@@ -2978,490 +3541,490 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="3" width="25.5666666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.1416666666667" style="9" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="3" width="25.5666666666667" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1416666666667" style="16" customWidth="1"/>
+    <col min="5" max="6" width="9" style="16"/>
+    <col min="7" max="7" width="11" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:10">
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="5:16">
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="P3" s="9" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="P3" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="4:17">
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="23" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="4:17">
-      <c r="D5" s="9">
+      <c r="D5" s="16">
         <v>0.01</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23"/>
-      <c r="Q5" s="9" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="30"/>
+      <c r="Q5" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="4:17">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="23" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="5:10">
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:14">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="9" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="16" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19" t="s">
+      <c r="C13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:12">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="9" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="5:11">
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="9" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="16" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="5:14">
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="9" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="20"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" customHeight="1" spans="5:10">
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="5:10">
-      <c r="E29" s="20"/>
-      <c r="F29" s="19"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="26"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="5:10">
-      <c r="E30" s="20"/>
-      <c r="F30" s="19"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="26"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="5:10">
-      <c r="E31" s="20"/>
-      <c r="F31" s="19"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="26"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="5:10">
-      <c r="E32" s="20"/>
-      <c r="F32" s="19"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="26"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="5:10">
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="5:10">
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="5:10">
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="5:10">
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="5:10">
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="5:10">
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="5:10">
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="5:10">
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="5:10">
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3487,243 +4050,243 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="4.51666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.3583333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="11.05" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.15" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.175" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="4.51666666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.3583333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="11.05" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.15" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.175" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="E26" s="14"/>
+      <c r="K26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3736,8 +4299,8 @@
   <sheetPr/>
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3756,24 +4319,24 @@
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D3" t="s">
@@ -3785,17 +4348,17 @@
       <c r="F3" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="5" t="str">
-        <f>J3&amp;"_"&amp;I3</f>
+      <c r="K3" s="12" t="str">
+        <f t="shared" ref="K3:K6" si="0">J3&amp;"_"&amp;I3</f>
         <v>ET_READ</v>
       </c>
       <c r="L3" t="s">
@@ -3803,10 +4366,10 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>203</v>
       </c>
       <c r="D4" t="s">
@@ -3818,14 +4381,14 @@
       <c r="F4" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="5" t="str">
-        <f>J4&amp;"_"&amp;I4</f>
+      <c r="K4" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>ET_WRITE</v>
       </c>
       <c r="L4" t="s">
@@ -3833,15 +4396,15 @@
       </c>
     </row>
     <row r="5" spans="4:12">
-      <c r="D5" s="1"/>
+      <c r="D5" s="7"/>
       <c r="I5" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="5" t="str">
-        <f>J5&amp;"_"&amp;I5</f>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>ET_RECV</v>
       </c>
       <c r="L5" t="s">
@@ -3849,118 +4412,134 @@
       </c>
     </row>
     <row r="6" spans="4:12">
-      <c r="D6" s="1"/>
+      <c r="D6" s="7"/>
       <c r="I6" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="5" t="str">
-        <f>J6&amp;"_"&amp;I6</f>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>ET_SEND</v>
       </c>
       <c r="L6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="E7" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>213</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>213</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>214</v>
-      </c>
-      <c r="I10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" t="s">
         <v>205</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>203</v>
       </c>
       <c r="I11" t="s">
         <v>156</v>
       </c>
       <c r="J11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K11" s="5" t="str">
+        <v>218</v>
+      </c>
+      <c r="K11" s="12" t="str">
         <f>J11&amp;"_"&amp;I11</f>
         <v>PT_GPIO</v>
       </c>
       <c r="L11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" t="s">
         <v>218</v>
       </c>
-      <c r="I12" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" t="s">
-        <v>216</v>
-      </c>
-      <c r="K12" s="5" t="str">
-        <f t="shared" ref="K12:K18" si="0">J12&amp;"_"&amp;I12</f>
+      <c r="K12" s="12" t="str">
+        <f t="shared" ref="K12:K18" si="1">J12&amp;"_"&amp;I12</f>
         <v>PT_ADC</v>
       </c>
       <c r="L12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J13" t="s">
-        <v>216</v>
-      </c>
-      <c r="K13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>PT_PWM</v>
       </c>
       <c r="L13" t="s">
-        <v>223</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>_</v>
       </c>
     </row>
@@ -3968,63 +4547,66 @@
       <c r="I15" t="s">
         <v>157</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="J15" t="s">
+        <v>218</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>PT_UART</v>
       </c>
       <c r="L15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="9:12">
       <c r="I16" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="J16" t="s">
+        <v>218</v>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>PT_SPI</v>
       </c>
       <c r="L16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="9:12">
       <c r="I17" t="s">
         <v>159</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="J17" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>PT_I2C</v>
       </c>
       <c r="L17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="9:12">
       <c r="I18" t="s">
-        <v>228</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="J18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" s="12" t="str">
+        <f t="shared" si="1"/>
         <v>PT_USB</v>
       </c>
       <c r="L18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="647" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="647" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MessageId" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Message" sheetId="8" r:id="rId8"/>
     <sheet name="FD" sheetId="9" r:id="rId9"/>
     <sheet name="JsonDesign" sheetId="10" r:id="rId10"/>
+    <sheet name="DeviceDes" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329">
   <si>
     <t>message</t>
   </si>
@@ -804,6 +805,39 @@
     <t>0b10100</t>
   </si>
   <si>
+    <t>END STRING</t>
+  </si>
+  <si>
+    <t>establish connection</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sessionid</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>session request</t>
+  </si>
+  <si>
+    <t>{"d":"sq"}</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>{</t>
   </si>
   <si>
@@ -840,9 +874,39 @@
     <t>}</t>
   </si>
   <si>
+    <t>session reply</t>
+  </si>
+  <si>
+    <t>{"d":"sr","v":"12345678"}</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>send infomation</t>
+  </si>
+  <si>
+    <t>{"v":["12345678","INFO1","b":1AF9,"c":"D08E"]}</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>HEX</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
@@ -871,6 +935,165 @@
   </si>
   <si>
     <t>Num of bytes</t>
+  </si>
+  <si>
+    <t>https://w3c.github.io/wot/proposals/json-td/#actions-member</t>
+  </si>
+  <si>
+    <t>DEVICE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Iterms</t>
+  </si>
+  <si>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>num of bytes</t>
+  </si>
+  <si>
+    <t>EX1</t>
+  </si>
+  <si>
+    <t>Firmware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Sub total</t>
+  </si>
+  <si>
+    <t>bytes/frame</t>
+  </si>
+  <si>
+    <t>num of frames</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>main id</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>Box1</t>
+  </si>
+  <si>
+    <t>Room 1</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>wf</t>
+  </si>
+  <si>
+    <t>num of iterms</t>
+  </si>
+  <si>
+    <t>noi</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>sub id</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>Light 1</t>
+  </si>
+  <si>
+    <t>Light 2</t>
+  </si>
+  <si>
+    <t>Den cau thang</t>
+  </si>
+  <si>
+    <t>Den phong 1</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>On/Off/Dimmer</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>gpio</t>
+  </si>
+  <si>
+    <t>value max</t>
+  </si>
+  <si>
+    <t>vma</t>
+  </si>
+  <si>
+    <t>value min</t>
+  </si>
+  <si>
+    <t>vmi</t>
+  </si>
+  <si>
+    <t>icon name</t>
+  </si>
+  <si>
+    <t>ina</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>toggle</t>
+  </si>
+  <si>
+    <t>value change</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>overheating</t>
+  </si>
+  <si>
+    <t>eve</t>
+  </si>
+  <si>
+    <t>trigger</t>
   </si>
 </sst>
 </file>
@@ -879,19 +1102,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,6 +1117,52 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -946,14 +1208,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,9 +1216,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,44 +1346,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1024,85 +1353,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1119,12 +1373,60 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1152,18 +1454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1182,7 +1472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,13 +1508,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,85 +1622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,25 +1634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,25 +1646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,6 +1701,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1440,337 +1798,326 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1782,10 +2129,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2348,109 +2695,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="43"/>
-    <col min="2" max="2" width="12.7083333333333" style="43" customWidth="1"/>
-    <col min="3" max="3" width="20.425" style="43" customWidth="1"/>
-    <col min="4" max="4" width="24.5666666666667" style="43" customWidth="1"/>
-    <col min="5" max="5" width="9" style="43"/>
-    <col min="6" max="6" width="19.1416666666667" style="43" customWidth="1"/>
-    <col min="7" max="7" width="24.7083333333333" style="43" customWidth="1"/>
-    <col min="8" max="8" width="20.8583333333333" style="43" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="9" style="62"/>
+    <col min="2" max="2" width="12.7083333333333" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.425" style="62" customWidth="1"/>
+    <col min="4" max="4" width="24.5666666666667" style="62" customWidth="1"/>
+    <col min="5" max="5" width="9" style="62"/>
+    <col min="6" max="6" width="19.1416666666667" style="62" customWidth="1"/>
+    <col min="7" max="7" width="24.7083333333333" style="62" customWidth="1"/>
+    <col min="8" max="8" width="20.8583333333333" style="62" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1"/>
-    <row r="2" s="11" customFormat="1" ht="18" customHeight="1" spans="2:7">
-      <c r="B2" s="11" t="s">
+    <row r="2" s="4" customFormat="1" ht="18" customHeight="1" spans="2:7">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="62" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="2:8">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="3:8">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="3:8">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="3:8">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="43" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="62" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2482,476 +2829,1378 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:Z20"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12.65" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="5" width="2.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="2.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="3.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="1" customWidth="1"/>
-    <col min="16" max="18" width="3.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.875" style="1" customWidth="1"/>
-    <col min="20" max="22" width="3.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5.875" style="1" customWidth="1"/>
-    <col min="24" max="26" width="3.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="7" width="9" style="22"/>
+    <col min="8" max="9" width="13.45" style="22" customWidth="1"/>
+    <col min="10" max="14" width="9" style="22"/>
+    <col min="16" max="16" width="12.65" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4"/>
+    <col min="18" max="19" width="2.375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="3.375" style="4" customWidth="1"/>
+    <col min="21" max="24" width="2.375" style="4" customWidth="1"/>
+    <col min="25" max="25" width="8.75" style="4" customWidth="1"/>
+    <col min="26" max="26" width="2.375" style="4" customWidth="1"/>
+    <col min="27" max="28" width="3.375" style="4" customWidth="1"/>
+    <col min="29" max="29" width="4.875" style="4" customWidth="1"/>
+    <col min="30" max="32" width="3.375" style="4" customWidth="1"/>
+    <col min="33" max="33" width="9.875" style="4" customWidth="1"/>
+    <col min="34" max="36" width="3.375" style="4" customWidth="1"/>
+    <col min="37" max="37" width="5.875" style="4" customWidth="1"/>
+    <col min="38" max="40" width="3.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:26">
-      <c r="D2" s="1">
+    <row r="1" spans="15:17">
+      <c r="O1" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="B2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="T2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="U2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="V2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="W2" s="4">
         <v>6</v>
       </c>
-      <c r="J2" s="1">
+      <c r="X2" s="4">
         <v>7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="Y2" s="4">
         <v>8</v>
       </c>
-      <c r="L2" s="1">
+      <c r="Z2" s="4">
         <v>9</v>
       </c>
-      <c r="M2" s="1">
+      <c r="AA2" s="4">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="AB2" s="4">
         <v>11</v>
       </c>
-      <c r="O2" s="1">
+      <c r="AC2" s="4">
         <v>12</v>
       </c>
-      <c r="P2" s="1">
+      <c r="AD2" s="4">
         <v>13</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="AE2" s="4">
         <v>14</v>
       </c>
-      <c r="R2" s="1">
+      <c r="AF2" s="4">
         <v>15</v>
       </c>
-      <c r="S2" s="1">
+      <c r="AG2" s="4">
         <v>16</v>
       </c>
-      <c r="T2" s="1">
+      <c r="AH2" s="4">
         <v>17</v>
       </c>
-      <c r="U2" s="1">
+      <c r="AI2" s="4">
         <v>18</v>
       </c>
-      <c r="V2" s="1">
+      <c r="AJ2" s="4">
         <v>19</v>
       </c>
-      <c r="W2" s="1">
+      <c r="AK2" s="4">
         <v>20</v>
       </c>
-      <c r="X2" s="1">
+      <c r="AL2" s="4">
         <v>21</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AM2" s="4">
         <v>22</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AN2" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="3:26">
-      <c r="C3" s="2">
+    <row r="3" spans="3:40">
+      <c r="C3" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q3" s="4">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="2:40">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:26">
-      <c r="B4" s="2">
-        <f>C3-C4</f>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="P4" s="4">
+        <f>Q3-Q4</f>
         <v>44</v>
       </c>
-      <c r="C4" s="2">
-        <f>SUM(D4:Z4)</f>
+      <c r="Q4" s="4">
+        <f>SUM(R4:AN4)</f>
         <v>20</v>
       </c>
-      <c r="D4" s="1">
+      <c r="R4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="S4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="T4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="U4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="V4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="W4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="X4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
+      <c r="AA4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="AB4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1">
+      <c r="AD4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="AE4" s="4">
         <v>1</v>
       </c>
-      <c r="R4" s="1">
+      <c r="AF4" s="4">
         <v>1</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1">
+      <c r="AH4" s="4">
         <v>1</v>
       </c>
-      <c r="U4" s="1">
+      <c r="AI4" s="4">
         <v>1</v>
       </c>
-      <c r="V4" s="1">
+      <c r="AJ4" s="4">
         <v>1</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1">
+      <c r="AL4" s="4">
         <v>1</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AM4" s="4">
         <v>1</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AN4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="2">
-        <f>B4-C5</f>
+    <row r="5" spans="3:37">
+      <c r="C5" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="22">
+        <f>LEN(E5)</f>
+        <v>46</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="4">
+        <f>P4-Q5</f>
         <v>12</v>
       </c>
-      <c r="C5" s="2">
+      <c r="Q5" s="4">
         <v>32</v>
       </c>
-      <c r="K5" s="1">
+      <c r="Y5" s="4">
         <v>4</v>
       </c>
-      <c r="O5" s="1">
+      <c r="AC5" s="4">
         <v>32</v>
       </c>
-      <c r="S5" s="1">
+      <c r="AG5" s="4">
         <v>3</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AK5" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="2">
-        <f>B5-C6</f>
+    <row r="6" spans="9:33">
+      <c r="I6" s="22">
+        <f>64-I5</f>
+        <v>18</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="P6" s="4">
+        <f>P5-Q6</f>
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="Q6" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="AG6" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="10:25">
+      <c r="J8" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="4">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <f>C8*128</f>
+      <c r="R8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="U8" s="4">
+        <f>Q8*128</f>
         <v>4096</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="Y8" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="16:25">
+      <c r="P9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="R9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="U9" s="4">
         <f>16^3</f>
         <v>4096</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="Y9" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="16:33">
+      <c r="P10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="3">
+      <c r="R10" s="4">
         <f>26+10</f>
         <v>36</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="U10" s="4">
         <f>36^4</f>
         <v>1679616</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1" t="s">
+      <c r="Y10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="Z10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="S10" s="1">
+      <c r="AB10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG10" s="4">
         <f>26+26+10</f>
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="11" spans="16:33">
+      <c r="P11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="U11" s="4">
         <f>16^5</f>
         <v>1048576</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="Y11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG11" s="4">
         <f>62*62*62*62</f>
         <v>14776336</v>
       </c>
     </row>
-    <row r="12" spans="19:23">
-      <c r="S12" s="1">
+    <row r="12" spans="33:37">
+      <c r="AG12" s="4">
         <v>11258454</v>
       </c>
-      <c r="T12" s="4">
-        <f>S12/S10</f>
+      <c r="AH12" s="26">
+        <f>AG12/AG10</f>
         <v>181587.967741935</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="6">
-        <f>MOD(S12,S10)</f>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="27">
+        <f>MOD(AG12,AG10)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="20:23">
-      <c r="T13" s="4">
-        <f>T12/S10</f>
+    <row r="13" spans="34:37">
+      <c r="AH13" s="26">
+        <f>AH12/AG10</f>
         <v>2928.83818938606</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="6">
-        <f>MOD(T12,S10)</f>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="27">
+        <f>MOD(AH12,AG10)</f>
         <v>51.9677419354848</v>
       </c>
     </row>
-    <row r="14" spans="20:23">
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="20:23">
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="20:23">
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="20:23">
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="20:23">
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="20:23">
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="20:23">
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+    <row r="14" spans="34:37">
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+    </row>
+    <row r="15" spans="34:37">
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+    </row>
+    <row r="16" spans="34:37">
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+    </row>
+    <row r="17" spans="34:37">
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+    </row>
+    <row r="18" spans="34:37">
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+    </row>
+    <row r="19" spans="34:37">
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+    </row>
+    <row r="20" spans="34:37">
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T19:V19"/>
+  <mergeCells count="18">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AH19:AJ19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:P39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
+    <col min="8" max="9" width="14.875" style="4" customWidth="1"/>
+    <col min="10" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="11.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="2:16">
+      <c r="B3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="6" spans="5:16">
+      <c r="E6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" s="4">
+        <f>LEN(F8)+G8</f>
+        <v>7</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4">
+        <v>12345678</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" ref="L9:L14" si="0">LEN(F9)+G9</f>
+        <v>11</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="4">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="4">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="4">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M14" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="G15" s="4">
+        <f>SUM(G8:G14)</f>
+        <v>62</v>
+      </c>
+      <c r="L15" s="4">
+        <f>L8+L9+L12+L13+L14</f>
+        <v>45</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM(M8:M14)</f>
+        <v>21</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM(G15:M15)</f>
+        <v>128</v>
+      </c>
+      <c r="O15" s="4">
+        <v>64</v>
+      </c>
+      <c r="P15" s="4">
+        <f>ROUNDUP(N15/O15,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="4">
+        <f>LEN(F17)+G17</f>
+        <v>4</v>
+      </c>
+      <c r="M17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" ref="L18:L24" si="1">LEN(F18)+G18</f>
+        <v>19</v>
+      </c>
+      <c r="M18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="4">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="M19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" s="4">
+        <v>16</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="G25" s="4">
+        <f>SUM(G17:G23)</f>
+        <v>37</v>
+      </c>
+      <c r="L25" s="4">
+        <f>L17+L20+L21+L22+L23</f>
+        <v>20</v>
+      </c>
+      <c r="M25" s="4">
+        <f>SUM(M17:M23)</f>
+        <v>21</v>
+      </c>
+      <c r="N25" s="4">
+        <f>SUM(G25:M25)</f>
+        <v>78</v>
+      </c>
+      <c r="O25" s="4">
+        <v>64</v>
+      </c>
+      <c r="P25" s="4">
+        <f>ROUNDUP(N25/O25,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4">
+        <f>SUM(G32:M32)</f>
+        <v>5</v>
+      </c>
+      <c r="O32" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" t="s">
+        <v>326</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="2:16">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16">
+        <v>1</v>
+      </c>
+      <c r="M35" s="16">
+        <v>3</v>
+      </c>
+      <c r="N35" s="16">
+        <f>SUM(G35:M35)</f>
+        <v>5</v>
+      </c>
+      <c r="O35" s="16">
+        <v>64</v>
+      </c>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18">
+        <f>SUM(N6:N35)</f>
+        <v>216</v>
+      </c>
+      <c r="O36" s="18">
+        <v>64</v>
+      </c>
+      <c r="P36" s="18">
+        <f>ROUNDUP(N36/O36,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="19" customHeight="1" spans="2:16">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20">
+        <f>SUM(N7:N35)</f>
+        <v>216</v>
+      </c>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20">
+        <f>SUM(P7:P35)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K26:K31"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L26:L31"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="B8:D16"/>
+    <mergeCell ref="B17:D25"/>
+    <mergeCell ref="B26:D32"/>
+    <mergeCell ref="B33:D34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2970,12 +4219,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="54" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2985,7 +4234,7 @@
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2995,7 +4244,7 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="54" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3005,12 +4254,12 @@
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="54" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3030,12 +4279,12 @@
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3045,12 +4294,12 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="54" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3089,12 +4338,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" ht="21.75" spans="2:2">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3104,7 +4353,7 @@
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3114,67 +4363,67 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" ht="21.75" spans="2:2">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="53" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="54" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="54" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="54" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="54" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3208,191 +4457,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18" style="38" customWidth="1"/>
-    <col min="2" max="2" width="18.1416666666667" style="38" customWidth="1"/>
-    <col min="3" max="3" width="36.2833333333333" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.1416666666667" style="38" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="18" style="57" customWidth="1"/>
+    <col min="2" max="2" width="18.1416666666667" style="57" customWidth="1"/>
+    <col min="3" max="3" width="36.2833333333333" style="58" customWidth="1"/>
+    <col min="4" max="4" width="18.1416666666667" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" s="36" customFormat="1" spans="2:6">
-      <c r="B4" s="36" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" s="55" customFormat="1" spans="2:6">
+      <c r="B4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" s="36" customFormat="1" ht="25.5" spans="2:6">
-      <c r="B5" s="36" t="s">
+    <row r="5" s="55" customFormat="1" ht="25.5" spans="2:6">
+      <c r="B5" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="55" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="57" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" ht="25.5" spans="2:6">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="57" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="25.5" spans="2:6">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" ht="25.5" spans="2:6">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="37" customFormat="1" spans="2:5">
-      <c r="B13" s="37" t="s">
+    <row r="13" s="56" customFormat="1" spans="2:5">
+      <c r="B13" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="56" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" ht="25.5" spans="2:6">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="57" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" ht="38.25" spans="2:6">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="57" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="57" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="57" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="57" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3417,12 +4666,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="3"/>
   <sheetData>
     <row r="2" ht="21.75" spans="2:2">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="53" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3432,22 +4681,22 @@
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="54" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="54" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3474,7 +4723,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="3" ht="18" spans="3:13">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="50" t="s">
         <v>115</v>
       </c>
       <c r="D3" t="s">
@@ -3483,12 +4732,12 @@
       <c r="L3" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="31"/>
+      <c r="C4" s="50"/>
       <c r="D4" t="s">
         <v>119</v>
       </c>
@@ -3497,28 +4746,28 @@
       </c>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="31"/>
+      <c r="C5" s="50"/>
       <c r="D5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="31"/>
+      <c r="C6" s="50"/>
       <c r="D6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="31"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="31"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="32"/>
+      <c r="C9" s="51"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="32"/>
+      <c r="C10" s="51"/>
     </row>
   </sheetData>
   <sortState ref="C3:C10">
@@ -3533,498 +4782,362 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:Q41"/>
+  <dimension ref="B2:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:H33"/>
+      <selection activeCell="G14" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="3" width="25.5666666666667" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.1416666666667" style="16" customWidth="1"/>
-    <col min="5" max="6" width="9" style="16"/>
-    <col min="7" max="7" width="11" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="35"/>
+    <col min="2" max="3" width="25.5666666666667" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.1416666666667" style="35" customWidth="1"/>
+    <col min="5" max="6" width="9" style="35"/>
+    <col min="7" max="7" width="11" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:10">
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="5:16">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="P3" s="16" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="P3" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="4:17">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="30" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="35" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="4:17">
-      <c r="D5" s="16">
+      <c r="D5" s="35">
         <v>0.01</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="30"/>
-      <c r="Q5" s="16" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="49"/>
+      <c r="Q5" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="4:17">
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="30" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="35" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="5:10">
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="45"/>
+      <c r="F7" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:14">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="16" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="35" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:10">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26" t="s">
+      <c r="C13" s="42"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:12">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="45"/>
+      <c r="F15" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="16" t="s">
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="5:11">
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="16" t="s">
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="35" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="5:14">
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26" t="s">
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="16" t="s">
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="35" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="26"/>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21" s="27" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22" s="27" t="s">
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23" s="27" t="s">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24" s="27" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="27"/>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="27" spans="5:10">
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28" customHeight="1" spans="5:10">
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29" spans="5:10">
-      <c r="E29" s="27"/>
-      <c r="F29" s="26"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" spans="5:10">
-      <c r="E30" s="27"/>
-      <c r="F30" s="26"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="5:10">
-      <c r="E31" s="27"/>
-      <c r="F31" s="26"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="5:10">
-      <c r="E32" s="27"/>
-      <c r="F32" s="26"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="5:10">
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" spans="5:10">
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="5:10">
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-    </row>
-    <row r="36" spans="5:10">
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" spans="5:10">
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-    </row>
-    <row r="38" spans="5:10">
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-    </row>
-    <row r="39" spans="5:10">
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-    </row>
-    <row r="40" spans="5:10">
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-    </row>
-    <row r="41" spans="5:10">
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
+      <c r="J24" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4050,243 +5163,243 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="4.51666666666667" style="12" customWidth="1"/>
-    <col min="3" max="3" width="23.3583333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="11.05" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.15" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.175" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="4.51666666666667" style="31" customWidth="1"/>
+    <col min="3" max="3" width="23.3583333333333" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9" style="31"/>
+    <col min="5" max="5" width="11.05" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.15" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.175" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="34" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="34" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="34" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="34" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="7:9">
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="31" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="33" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="31" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="31" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="31" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="33" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="31" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="31" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="33" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="33" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="33" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="33"/>
     </row>
     <row r="26" spans="3:11">
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="E26" s="33"/>
+      <c r="K26" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4319,7 +5432,7 @@
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>195</v>
       </c>
       <c r="I2" t="s">
@@ -4333,10 +5446,10 @@
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D3" t="s">
@@ -4348,16 +5461,16 @@
       <c r="F3" t="s">
         <v>196</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="K3" s="12" t="str">
+      <c r="K3" s="31" t="str">
         <f t="shared" ref="K3:K6" si="0">J3&amp;"_"&amp;I3</f>
         <v>ET_READ</v>
       </c>
@@ -4366,10 +5479,10 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D4" t="s">
@@ -4381,13 +5494,13 @@
       <c r="F4" t="s">
         <v>205</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="K4" s="12" t="str">
+      <c r="K4" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ET_WRITE</v>
       </c>
@@ -4396,14 +5509,14 @@
       </c>
     </row>
     <row r="5" spans="4:12">
-      <c r="D5" s="7"/>
+      <c r="D5" s="2"/>
       <c r="I5" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="12" t="str">
+      <c r="K5" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ET_RECV</v>
       </c>
@@ -4412,14 +5525,14 @@
       </c>
     </row>
     <row r="6" spans="4:12">
-      <c r="D6" s="7"/>
+      <c r="D6" s="2"/>
       <c r="I6" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="12" t="str">
+      <c r="K6" s="31" t="str">
         <f t="shared" si="0"/>
         <v>ET_SEND</v>
       </c>
@@ -4431,10 +5544,10 @@
       <c r="B7" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="29" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4442,10 +5555,10 @@
       <c r="B8" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="30" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4453,10 +5566,10 @@
       <c r="B9" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
@@ -4476,7 +5589,7 @@
       <c r="B11" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="2" t="s">
         <v>203</v>
       </c>
       <c r="I11" t="s">
@@ -4485,7 +5598,7 @@
       <c r="J11" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="12" t="str">
+      <c r="K11" s="31" t="str">
         <f>J11&amp;"_"&amp;I11</f>
         <v>PT_GPIO</v>
       </c>
@@ -4503,7 +5616,7 @@
       <c r="J12" t="s">
         <v>218</v>
       </c>
-      <c r="K12" s="12" t="str">
+      <c r="K12" s="31" t="str">
         <f t="shared" ref="K12:K18" si="1">J12&amp;"_"&amp;I12</f>
         <v>PT_ADC</v>
       </c>
@@ -4521,24 +5634,24 @@
       <c r="J13" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="12" t="str">
+      <c r="K13" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PT_PWM</v>
       </c>
       <c r="L13" t="s">
         <v>225</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="12" t="str">
+      <c r="K14" s="31" t="str">
         <f t="shared" si="1"/>
         <v>_</v>
       </c>
@@ -4550,7 +5663,7 @@
       <c r="J15" t="s">
         <v>218</v>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PT_UART</v>
       </c>
@@ -4565,7 +5678,7 @@
       <c r="J16" t="s">
         <v>218</v>
       </c>
-      <c r="K16" s="12" t="str">
+      <c r="K16" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PT_SPI</v>
       </c>
@@ -4580,7 +5693,7 @@
       <c r="J17" t="s">
         <v>218</v>
       </c>
-      <c r="K17" s="12" t="str">
+      <c r="K17" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PT_I2C</v>
       </c>
@@ -4595,7 +5708,7 @@
       <c r="J18" t="s">
         <v>218</v>
       </c>
-      <c r="K18" s="12" t="str">
+      <c r="K18" s="31" t="str">
         <f t="shared" si="1"/>
         <v>PT_USB</v>
       </c>

--- a/doc/MessageDesign.xlsx
+++ b/doc/MessageDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" tabRatio="647" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="21495" windowHeight="10545" tabRatio="647" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="MessageId" sheetId="1" r:id="rId1"/>
@@ -2832,7 +2832,7 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
